--- a/SupplementaryMaterials/SupplM7_data_source.xlsx
+++ b/SupplementaryMaterials/SupplM7_data_source.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Organism</t>
   </si>
   <si>
-    <t xml:space="preserve">SMALL</t>
+    <t xml:space="preserve">Benchmarking data sets - SMALL</t>
   </si>
   <si>
     <t xml:space="preserve">Darmanis</t>
@@ -77,7 +77,7 @@
 tical samples</t>
   </si>
   <si>
-    <t xml:space="preserve">MEDIUM</t>
+    <t xml:space="preserve">Benchmarking data sets -  MEDIUM</t>
   </si>
   <si>
     <t xml:space="preserve">PBMC10x</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">https://singlecell.broadinstitute.org/single_cell/study/SCP424/single-cell-comparison-pbmc-data</t>
   </si>
   <si>
-    <t xml:space="preserve">     Ding J, Adiconis X, Simmons SK, Kowalczyk MS et al. Systematic comparison of single-cell and single-nucleus RNA-sequencing methods. Nat Biotechnol 2020 Jun;38(6):737-746. PMID: 32341560</t>
+    <t xml:space="preserve">   Ding J, Adiconis X, Simmons SK, Kowalczyk MS et al. Systematic comparison of single-cell and single-nucleus RNA-sequencing methods. Nat Biotechnol 2020 Jun;38(6):737-746. PMID: 32341560</t>
   </si>
   <si>
     <t xml:space="preserve">human</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Tirosh, I., Izar, B., Prakadan, S. M., Wadsworth, M. H., Treacy, D., Trombetta, J. J., Rotem, A., Rodman, C., Lian, C., Murphy, G., et al. (2016). Dissecting the multicellular ecosystem of metastatic melanoma by single-cell rna-seq. Science, 352(6282):189–196.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeisel Brain data</t>
+    <t xml:space="preserve">zeisel</t>
   </si>
   <si>
     <t xml:space="preserve">Fluidigm C1</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">Zeisel, A., A. B. Munoz-Manchado, S. Codeluppi, P. Lonnerberg, G. La Manno, A. Jureus, S. Marques, et al. 2015. “Brain structure. Cell types in the mouse cortex and hippocampus revealed by single-cell RNA-seq.” Science 347 (6226): 1138–42.</t>
   </si>
   <si>
-    <t xml:space="preserve">mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baron Pancreas</t>
+    <t xml:space="preserve">mouse brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaronPancreas</t>
   </si>
   <si>
     <t xml:space="preserve">CEL-seq</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">Baron, M., A. Veres, S. L. Wolock, A. L. Faust, R. Gaujoux, A. Vetere, J. H. Ryu, et al. 2016. “A Single-Cell Transcriptomic Map of the Human and Mouse Pancreas Reveals Inter- and Intra-cell Population Structure.” Cell Syst 3 (4): 346–60.</t>
   </si>
   <si>
-    <t xml:space="preserve">LARGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmel_E14-16h</t>
+    <t xml:space="preserve">Benchmarking data sets – LARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemlSpatial</t>
   </si>
   <si>
     <t xml:space="preserve">Stereo-seq</t>
@@ -137,10 +137,13 @@
     <t xml:space="preserve">https://db.cngb.org/stomics/flysta3d/download.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Wang, M. et al. High-resolution 3D spatiotemporal transcriptomic maps of developing Drosophila embryos and larvae. Dev. Cell 57, 1271–1283 (2022).</t>
+  </si>
+  <si>
     <t xml:space="preserve">dmel</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabula sapiens – endothelial</t>
+    <t xml:space="preserve">TabulaSapiens</t>
   </si>
   <si>
     <t xml:space="preserve">10x</t>
@@ -152,7 +155,7 @@
     <t xml:space="preserve">The Tabula Sapiens Consortium, The Tabula Sapiens: A multiple-organ, single-cell transcriptomic atlas of humans Science 376, eabl4896 (2022).</t>
   </si>
   <si>
-    <t xml:space="preserve">brain organoid</t>
+    <t xml:space="preserve">BrainOrganoid</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE189981</t>
@@ -164,40 +167,16 @@
     <t xml:space="preserve">Additional data sets discussed:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabula Muris – Limb Muscle</t>
+    <t xml:space="preserve">tabula muris</t>
   </si>
   <si>
     <t xml:space="preserve">http://bioconductor.org/packages/release/data/experiment/html/TabulaMurisData.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Schaum   N,   Karkanias   J,   Neff   NF,   et   al   (2018), Single-cell   transcrip-tomics   of   20   mouse   organs creates   a   tabula   muris   562(7727):367–372. https://doi.org/10.1038/s41586-018-0590-4, URL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.nature.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/articles/s41586-018-0590-4</t>
-    </r>
+    <t xml:space="preserve">Schaum N, Karkanias J, Neff NF, et al (2018), Single-cell transcrip-tomics of 20 mouse organs creates a tabula muris 562(7727):367–372. https://doi.org/10.1038/s41586-018-0590-4, URL https://www.nature.com/articles/s41586-018-0590-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse – Limb Muscle</t>
   </si>
   <si>
     <t xml:space="preserve">[20]</t>
@@ -236,18 +215,12 @@
     <t xml:space="preserve">lines, HCC827, H1975 and H2228</t>
   </si>
   <si>
-    <t xml:space="preserve">tabula muris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabula Muris Limb Muscle</t>
   </si>
   <si>
     <t xml:space="preserve">[18]</t>
   </si>
   <si>
-    <t xml:space="preserve">zeisel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mouse somatosensory cortex and </t>
   </si>
   <si>
@@ -282,9 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">mononuclear cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaronPancreas</t>
   </si>
   <si>
     <t xml:space="preserve">Human Pancreas</t>
@@ -327,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -366,6 +336,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -437,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -511,6 +488,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,8 +622,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,7 +634,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="43.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="47.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +829,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>35</v>
       </c>
@@ -863,14 +845,16 @@
       <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>32701</v>
@@ -878,22 +862,22 @@
       <c r="C12" s="17" t="n">
         <v>58559</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>40</v>
+      <c r="D12" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>35291</v>
@@ -905,12 +889,12 @@
         <v>14</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1941,8 +1925,8 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>46</v>
+      <c r="A15" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2969,399 +2953,399 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="22" t="n">
+      <c r="A16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="23" t="n">
         <v>1960</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="23" t="n">
         <v>23433</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>29</v>
+      <c r="F16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="28" t="n">
+        <v>466</v>
+      </c>
+      <c r="D36" s="28" t="n">
+        <v>22085</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="30" t="n">
+        <v>925</v>
+      </c>
+      <c r="D37" s="30" t="n">
+        <v>58302</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="30"/>
+      <c r="B38" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="28" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D39" s="28" t="n">
+        <v>23433</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="30" t="n">
+        <v>2874</v>
+      </c>
+      <c r="D40" s="30" t="n">
+        <v>14508</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30"/>
+      <c r="B41" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="28" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D42" s="28" t="n">
+        <v>32738</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="30" t="n">
+        <v>2887</v>
+      </c>
+      <c r="D43" s="30" t="n">
+        <v>23686</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30"/>
+      <c r="B44" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="30" t="n">
+        <v>3362</v>
+      </c>
+      <c r="D45" s="30" t="n">
+        <v>33694</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30"/>
+      <c r="B46" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="28" t="n">
+        <v>8569</v>
+      </c>
+      <c r="D47" s="28" t="n">
+        <v>20125</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="30" t="n">
+        <v>15295</v>
+      </c>
+      <c r="D48" s="30" t="n">
+        <v>13668</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="30"/>
+      <c r="B49" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="28" t="n">
+        <v>32701</v>
+      </c>
+      <c r="D50" s="28" t="n">
+        <v>58559</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="28" t="n">
+        <v>35291</v>
+      </c>
+      <c r="D51" s="28" t="n">
+        <v>33538</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="27" t="n">
-        <v>466</v>
-      </c>
-      <c r="D36" s="27" t="n">
-        <v>22085</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="29" t="n">
-        <v>925</v>
-      </c>
-      <c r="D37" s="29" t="n">
-        <v>58302</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="27" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D39" s="27" t="n">
-        <v>23433</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="29" t="n">
-        <v>2874</v>
-      </c>
-      <c r="D40" s="29" t="n">
-        <v>14508</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="27" t="n">
-        <v>2700</v>
-      </c>
-      <c r="D42" s="27" t="n">
-        <v>32738</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="29" t="n">
-        <v>2887</v>
-      </c>
-      <c r="D43" s="29" t="n">
-        <v>23686</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>3362</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>33694</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="27" t="n">
-        <v>8569</v>
-      </c>
-      <c r="D47" s="27" t="n">
-        <v>20125</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="29" t="n">
-        <v>15295</v>
-      </c>
-      <c r="D48" s="29" t="n">
-        <v>13668</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="27" t="n">
-        <v>32701</v>
-      </c>
-      <c r="D50" s="27" t="n">
-        <v>58559</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="27" t="n">
-        <v>35291</v>
-      </c>
-      <c r="D51" s="27" t="n">
-        <v>33538</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3386,6 @@
     <hyperlink ref="E12" r:id="rId4" display="https://tabula-sapiens-portal.ds.czbiohub.org/"/>
     <hyperlink ref="E13" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE189981"/>
     <hyperlink ref="E16" r:id="rId6" display="http://bioconductor.org/packages/release/data/experiment/html/TabulaMurisData.html"/>
-    <hyperlink ref="F16" r:id="rId7" display="https://www.nature.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
